--- a/template/credit_note_template.xlsx
+++ b/template/credit_note_template.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tradewithcarrot\Documents\credit note\credit_note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fb40d597e224214/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="349" documentId="13_ncr:1_{CC33101F-D1F3-4CA6-8DED-F6359ED79FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCE92B1D-8B7A-41CC-BC6B-1C4DF8600440}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{E0EFEF1F-FECF-42B4-8F33-C179CD6FE904}"/>
   </bookViews>
   <sheets>
     <sheet name="ต้นฉบับ" sheetId="1" r:id="rId1"/>
     <sheet name="สำเนา" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,10 +112,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -478,9 +479,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -503,44 +504,65 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -551,27 +573,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -590,10 +591,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -602,13 +609,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -620,6 +627,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -669,30 +679,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1013,30 +999,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B3E226-827F-461D-A81E-B3FCAB2418AE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:J12"/>
+    <sheetView view="pageLayout" topLeftCell="A12" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
     <col min="2" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="1"/>
+    <col min="7" max="7" width="10.81640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="40.5">
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" spans="1:10" ht="22.5">
       <c r="A3" s="3"/>
@@ -1049,48 +1038,48 @@
         <v>0</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
     </row>
     <row r="4" spans="1:10" ht="22.5">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
     </row>
     <row r="5" spans="1:10" ht="22.5">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-    </row>
-    <row r="6" spans="1:10" ht="23.25">
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+    </row>
+    <row r="6" spans="1:10" ht="23.5">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
     </row>
     <row r="7" spans="1:10" ht="22.5">
       <c r="A7" s="2"/>
@@ -1099,12 +1088,12 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
     </row>
     <row r="8" spans="1:10" ht="22.5">
       <c r="A8" s="2"/>
@@ -1124,43 +1113,43 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="65"/>
-      <c r="J9" s="66"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" spans="1:10" ht="22.5">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
     </row>
     <row r="11" spans="1:10" ht="22.5">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
     </row>
     <row r="12" spans="1:10" ht="22.5">
       <c r="A12" s="2" t="s">
@@ -1168,17 +1157,17 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
       <c r="G12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-    </row>
-    <row r="13" spans="1:10" ht="23.25" thickBot="1">
+      <c r="H12" s="65"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+    </row>
+    <row r="13" spans="1:10" ht="23" thickBot="1">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1189,157 +1178,157 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="23.45" customHeight="1">
-      <c r="A14" s="50" t="s">
+    <row r="14" spans="1:10" ht="23.5" customHeight="1">
+      <c r="A14" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="56" t="s">
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="49" t="s">
+      <c r="H14" s="60"/>
+      <c r="I14" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="49"/>
-    </row>
-    <row r="15" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A15" s="53"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
+      <c r="J14" s="52"/>
+    </row>
+    <row r="15" spans="1:10" ht="16" thickBot="1">
+      <c r="A15" s="56"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
     </row>
     <row r="16" spans="1:10" ht="22.5">
       <c r="A16" s="8"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="43"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="45"/>
     </row>
     <row r="17" spans="1:10" ht="22.5">
       <c r="A17" s="9"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" ht="22.5">
       <c r="A18" s="9"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" ht="22.5">
       <c r="A19" s="9"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="14"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" ht="22.5">
       <c r="A20" s="9"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10" ht="22.5">
       <c r="A21" s="9"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="14"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" ht="22.5">
       <c r="A22" s="9"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:10" ht="22.5">
       <c r="A23" s="9"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="14"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" ht="22.5">
       <c r="A24" s="9"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="1:10" ht="23.25" thickBot="1">
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" spans="1:10" ht="23" thickBot="1">
       <c r="A25" s="10"/>
       <c r="B25" s="31"/>
       <c r="C25" s="32"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
       <c r="F25" s="33"/>
-      <c r="G25" s="15"/>
+      <c r="G25" s="19"/>
       <c r="H25" s="37"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
     </row>
     <row r="26" spans="1:10" ht="22.5">
       <c r="A26" s="7"/>
@@ -1352,8 +1341,8 @@
       </c>
       <c r="G26" s="34"/>
       <c r="H26" s="35"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="18"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="22"/>
     </row>
     <row r="27" spans="1:10" ht="22.5">
       <c r="A27" s="6"/>
@@ -1361,59 +1350,59 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="30"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="36"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="1:10" ht="23.45" customHeight="1">
+      <c r="I27" s="23"/>
+      <c r="J27" s="24"/>
+    </row>
+    <row r="28" spans="1:10" ht="23.5" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="30"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="36"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="25"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="12"/>
     </row>
     <row r="29" spans="1:10" ht="22.5">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30" t="s">
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="30"/>
+      <c r="G29" s="27"/>
       <c r="H29" s="36"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="27"/>
-    </row>
-    <row r="30" spans="1:10" ht="23.45" customHeight="1" thickBot="1">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="30" t="s">
+      <c r="I29" s="13"/>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="1:10" ht="23.5" customHeight="1" thickBot="1">
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="30"/>
+      <c r="G30" s="27"/>
       <c r="H30" s="36"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="12"/>
-    </row>
-    <row r="31" spans="1:10" ht="23.25" thickTop="1">
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+    </row>
+    <row r="31" spans="1:10" ht="23" thickTop="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1431,17 +1420,16 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="G20:H20"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="B14:F15"/>
     <mergeCell ref="A4:J4"/>
@@ -1454,6 +1442,12 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="A30:E30"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="I9:J9"/>
@@ -1464,6 +1458,17 @@
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="D32:H32"/>
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="B23:F23"/>
@@ -1473,27 +1478,11 @@
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="G25:H25"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
@@ -1502,35 +1491,38 @@
     <mergeCell ref="I27:J27"/>
   </mergeCells>
   <pageMargins left="0.67" right="0.9" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D4C9D5-4E05-4608-AE1C-50A13CF3F2E8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:J32"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A10" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25:J25"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
     <col min="2" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="1"/>
+    <col min="7" max="7" width="10.81640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="40.5">
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" spans="1:10" ht="22.5">
       <c r="A3" s="3"/>
@@ -1543,48 +1535,48 @@
         <v>0</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
     </row>
     <row r="4" spans="1:10" ht="22.5">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
     </row>
     <row r="5" spans="1:10" ht="22.5">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-    </row>
-    <row r="6" spans="1:10" ht="23.25">
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+    </row>
+    <row r="6" spans="1:10" ht="23.5">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
     </row>
     <row r="7" spans="1:10" ht="22.5">
       <c r="A7" s="2"/>
@@ -1593,12 +1585,12 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
     </row>
     <row r="8" spans="1:10" ht="22.5">
       <c r="A8" s="2"/>
@@ -1618,43 +1610,43 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="65"/>
-      <c r="J9" s="66"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" spans="1:10" ht="22.5">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
     </row>
     <row r="11" spans="1:10" ht="22.5">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
     </row>
     <row r="12" spans="1:10" ht="22.5">
       <c r="A12" s="2" t="s">
@@ -1662,17 +1654,17 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
       <c r="G12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-    </row>
-    <row r="13" spans="1:10" ht="23.25" thickBot="1">
+      <c r="H12" s="65"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+    </row>
+    <row r="13" spans="1:10" ht="23" thickBot="1">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1683,157 +1675,157 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="23.45" customHeight="1">
-      <c r="A14" s="50" t="s">
+    <row r="14" spans="1:10" ht="23.5" customHeight="1">
+      <c r="A14" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="56" t="s">
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="49" t="s">
+      <c r="H14" s="60"/>
+      <c r="I14" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="49"/>
-    </row>
-    <row r="15" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A15" s="53"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
+      <c r="J14" s="52"/>
+    </row>
+    <row r="15" spans="1:10" ht="16" thickBot="1">
+      <c r="A15" s="56"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
     </row>
     <row r="16" spans="1:10" ht="22.5">
       <c r="A16" s="8"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="71"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="45"/>
     </row>
     <row r="17" spans="1:10" ht="22.5">
       <c r="A17" s="9"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="68"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" ht="22.5">
       <c r="A18" s="9"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="68"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" ht="22.5">
       <c r="A19" s="9"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="68"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" ht="22.5">
       <c r="A20" s="9"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10" ht="22.5">
       <c r="A21" s="9"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="68"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" ht="22.5">
       <c r="A22" s="9"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="68"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:10" ht="22.5">
       <c r="A23" s="9"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="68"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" ht="22.5">
       <c r="A24" s="9"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="68"/>
-    </row>
-    <row r="25" spans="1:10" ht="23.25" thickBot="1">
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" spans="1:10" ht="23" thickBot="1">
       <c r="A25" s="10"/>
       <c r="B25" s="31"/>
       <c r="C25" s="32"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
       <c r="F25" s="33"/>
-      <c r="G25" s="15"/>
+      <c r="G25" s="19"/>
       <c r="H25" s="37"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="70"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
     </row>
     <row r="26" spans="1:10" ht="22.5">
       <c r="A26" s="7"/>
@@ -1846,8 +1838,8 @@
       </c>
       <c r="G26" s="34"/>
       <c r="H26" s="35"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="18"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="22"/>
     </row>
     <row r="27" spans="1:10" ht="22.5">
       <c r="A27" s="6"/>
@@ -1855,59 +1847,59 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="30"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="36"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="1:10" ht="23.45" customHeight="1">
+      <c r="I27" s="23"/>
+      <c r="J27" s="24"/>
+    </row>
+    <row r="28" spans="1:10" ht="23.5" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="30"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="36"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="25"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="12"/>
     </row>
     <row r="29" spans="1:10" ht="22.5">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30" t="s">
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="30"/>
+      <c r="G29" s="27"/>
       <c r="H29" s="36"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="27"/>
-    </row>
-    <row r="30" spans="1:10" ht="23.45" customHeight="1" thickBot="1">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="30" t="s">
+      <c r="I29" s="13"/>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="1:10" ht="23.5" customHeight="1" thickBot="1">
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="30"/>
+      <c r="G30" s="27"/>
       <c r="H30" s="36"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="12"/>
-    </row>
-    <row r="31" spans="1:10" ht="23.25" thickTop="1">
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+    </row>
+    <row r="31" spans="1:10" ht="23" thickTop="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1925,11 +1917,11 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -1953,31 +1945,36 @@
     <mergeCell ref="I14:J15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I22:J22"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="D32:H32"/>
@@ -1989,13 +1986,8 @@
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="F30:H30"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
   </mergeCells>
   <pageMargins left="0.67" right="0.9" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/template/credit_note_template.xlsx
+++ b/template/credit_note_template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fb40d597e224214/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tradewithcarrot\Documents\credit note\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="349" documentId="13_ncr:1_{CC33101F-D1F3-4CA6-8DED-F6359ED79FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCE92B1D-8B7A-41CC-BC6B-1C4DF8600440}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{E0EFEF1F-FECF-42B4-8F33-C179CD6FE904}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="ต้นฉบับ" sheetId="1" r:id="rId1"/>
@@ -112,12 +111,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,40 +135,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="BrowalliaUPC"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="BrowalliaUPC"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="28"/>
-      <color theme="1"/>
+      <name val="BrowalliaUPC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <name val="BrowalliaUPC"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="1"/>
       <name val="BrowalliaUPC"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="1"/>
-      <name val="BrowalliaUPC"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
       <name val="BrowalliaUPC"/>
       <family val="2"/>
     </font>
@@ -188,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -369,19 +357,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -471,214 +446,219 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -999,437 +979,438 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B3E226-827F-461D-A81E-B3FCAB2418AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:J32"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A12" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:E30"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
     <col min="2" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="40.5">
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="22.5">
       <c r="A3" s="3"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="22.5">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="22.5">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-    </row>
-    <row r="6" spans="1:10" ht="23.5">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="58" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="23.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="22.5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="57" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="22.5">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="22.5">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="22.5">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" ht="22.5">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="22.5">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="6" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="65"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-    </row>
-    <row r="13" spans="1:10" ht="23" thickBot="1">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="23.5" customHeight="1">
-      <c r="A14" s="53" t="s">
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" ht="23.25" thickBot="1">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="23.45" customHeight="1">
+      <c r="A14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="59" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="60"/>
-      <c r="I14" s="52" t="s">
+      <c r="H14" s="22"/>
+      <c r="I14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="52"/>
-    </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
-      <c r="A15" s="56"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:10" ht="22.5">
-      <c r="A16" s="8"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="45"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="34"/>
     </row>
     <row r="17" spans="1:10" ht="22.5">
-      <c r="A17" s="9"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="18"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10" ht="22.5">
-      <c r="A18" s="9"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="1:10" ht="22.5">
-      <c r="A19" s="9"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40"/>
     </row>
     <row r="20" spans="1:10" ht="22.5">
-      <c r="A20" s="9"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="18"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
     </row>
     <row r="21" spans="1:10" ht="22.5">
-      <c r="A21" s="9"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="18"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40"/>
     </row>
     <row r="22" spans="1:10" ht="22.5">
-      <c r="A22" s="9"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="18"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
     </row>
     <row r="23" spans="1:10" ht="22.5">
-      <c r="A23" s="9"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="18"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="40"/>
     </row>
     <row r="24" spans="1:10" ht="22.5">
-      <c r="A24" s="9"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="18"/>
-    </row>
-    <row r="25" spans="1:10" ht="23" thickBot="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="40"/>
+    </row>
+    <row r="25" spans="1:10" ht="23.25" thickBot="1">
+      <c r="A25" s="41"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="46"/>
     </row>
     <row r="26" spans="1:10" ht="22.5">
-      <c r="A26" s="7"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="34" t="s">
+      <c r="A26" s="47"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="22"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
     </row>
     <row r="27" spans="1:10" ht="22.5">
-      <c r="A27" s="6"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="27" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="24"/>
-    </row>
-    <row r="28" spans="1:10" ht="23.5" customHeight="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="27" t="s">
+      <c r="G27" s="51"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+    </row>
+    <row r="28" spans="1:10" ht="23.45" customHeight="1">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="12"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
     </row>
     <row r="29" spans="1:10" ht="22.5">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27" t="s">
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="14"/>
-    </row>
-    <row r="30" spans="1:10" ht="23.5" customHeight="1" thickBot="1">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="27" t="s">
+      <c r="G29" s="51"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+    </row>
+    <row r="30" spans="1:10" ht="23.45" customHeight="1" thickBot="1">
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-    </row>
-    <row r="31" spans="1:10" ht="23" thickTop="1">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+    </row>
+    <row r="31" spans="1:10" ht="23.25" thickTop="1">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="22.5">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="G20:H20"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="B14:F15"/>
     <mergeCell ref="A4:J4"/>
@@ -1439,15 +1420,9 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="G14:H15"/>
     <mergeCell ref="I14:J15"/>
-    <mergeCell ref="I3:J3"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="H3:J3"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="I9:J9"/>
@@ -1458,17 +1433,6 @@
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
     <mergeCell ref="D32:H32"/>
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="B23:F23"/>
@@ -1478,11 +1442,27 @@
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="G25:H25"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
@@ -1491,448 +1471,448 @@
     <mergeCell ref="I27:J27"/>
   </mergeCells>
   <pageMargins left="0.67" right="0.9" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D4C9D5-4E05-4608-AE1C-50A13CF3F2E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:E30"/>
+    <sheetView view="pageLayout" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
     <col min="2" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="40.5">
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="22.5">
       <c r="A3" s="3"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="22.5">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="22.5">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-    </row>
-    <row r="6" spans="1:10" ht="23.5">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="58" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="23.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="22.5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="57" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="22.5">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="22.5">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="22.5">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" ht="22.5">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="22.5">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="6" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="65"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-    </row>
-    <row r="13" spans="1:10" ht="23" thickBot="1">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="23.5" customHeight="1">
-      <c r="A14" s="53" t="s">
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" ht="23.25" thickBot="1">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="23.45" customHeight="1">
+      <c r="A14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="59" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="60"/>
-      <c r="I14" s="52" t="s">
+      <c r="H14" s="22"/>
+      <c r="I14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="52"/>
-    </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
-      <c r="A15" s="56"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:10" ht="22.5">
-      <c r="A16" s="8"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="45"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="34"/>
     </row>
     <row r="17" spans="1:10" ht="22.5">
-      <c r="A17" s="9"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="18"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10" ht="22.5">
-      <c r="A18" s="9"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="1:10" ht="22.5">
-      <c r="A19" s="9"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40"/>
     </row>
     <row r="20" spans="1:10" ht="22.5">
-      <c r="A20" s="9"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="18"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
     </row>
     <row r="21" spans="1:10" ht="22.5">
-      <c r="A21" s="9"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="18"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40"/>
     </row>
     <row r="22" spans="1:10" ht="22.5">
-      <c r="A22" s="9"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="18"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
     </row>
     <row r="23" spans="1:10" ht="22.5">
-      <c r="A23" s="9"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="18"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="40"/>
     </row>
     <row r="24" spans="1:10" ht="22.5">
-      <c r="A24" s="9"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="18"/>
-    </row>
-    <row r="25" spans="1:10" ht="23" thickBot="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="40"/>
+    </row>
+    <row r="25" spans="1:10" ht="23.25" thickBot="1">
+      <c r="A25" s="41"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="46"/>
     </row>
     <row r="26" spans="1:10" ht="22.5">
-      <c r="A26" s="7"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="34" t="s">
+      <c r="A26" s="47"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="22"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
     </row>
     <row r="27" spans="1:10" ht="22.5">
-      <c r="A27" s="6"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="27" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="24"/>
-    </row>
-    <row r="28" spans="1:10" ht="23.5" customHeight="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="27" t="s">
+      <c r="G27" s="51"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+    </row>
+    <row r="28" spans="1:10" ht="23.45" customHeight="1">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="12"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
     </row>
     <row r="29" spans="1:10" ht="22.5">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27" t="s">
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="14"/>
-    </row>
-    <row r="30" spans="1:10" ht="23.5" customHeight="1" thickBot="1">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="27" t="s">
+      <c r="G29" s="51"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+    </row>
+    <row r="30" spans="1:10" ht="23.45" customHeight="1" thickBot="1">
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-    </row>
-    <row r="31" spans="1:10" ht="23" thickTop="1">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+    </row>
+    <row r="31" spans="1:10" ht="23.25" thickTop="1">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="22.5">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="59">
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I3:J3"/>
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="C6:H6"/>
+    <mergeCell ref="H3:J3"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="B10:J10"/>
@@ -1988,6 +1968,6 @@
     <mergeCell ref="I30:J30"/>
   </mergeCells>
   <pageMargins left="0.67" right="0.9" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>